--- a/Estimation de stage.xlsx
+++ b/Estimation de stage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5C7C42-EFF9-41AA-8D93-0F0C4554FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE55DA13-ACE5-418E-BC5B-67F04B27F5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Tâches</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Gestion des materiaux  (R, recherche, filtre)</t>
   </si>
   <si>
-    <t>Les details d'un BDQ</t>
-  </si>
-  <si>
     <t>Modération des bordereaux(validation,suppression)</t>
   </si>
   <si>
@@ -112,15 +109,9 @@
     <t>Recapitulation des travaux a faire et le total des prix pour chaque travaux</t>
   </si>
   <si>
-    <t>Liste des  Bordereaux du Detail Estimatif(BDE)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recherche et filtrage par date, localisation, devis, type de BDE(Construction,Renovation,...) </t>
   </si>
   <si>
-    <t>Les details d'un BDE</t>
-  </si>
-  <si>
     <t>Création des dessins d'écran (adobe xd) pour le front-office</t>
   </si>
   <si>
@@ -133,18 +124,12 @@
     <t>Importation des plans pour chaque projet(pdf)</t>
   </si>
   <si>
-    <t>Exportation en pdf des conventions et des BDE</t>
-  </si>
-  <si>
     <t xml:space="preserve">CRUD type de materiaux pour chaque nouvel bordereau du detail quantitatif /materiaux/ prix </t>
   </si>
   <si>
     <t>Creation des articles et acte d'engagement (Pour le client et l'entreprise)</t>
   </si>
   <si>
-    <t>Tableau de bord des devis par mois pour les administrateurs</t>
-  </si>
-  <si>
     <t>Tableau de bord de suivis de travaux pour chaque projet</t>
   </si>
   <si>
@@ -152,6 +137,27 @@
   </si>
   <si>
     <t>CRUD type de bordereau, serie de travaux pour chaque type de bordereau</t>
+  </si>
+  <si>
+    <t>Calcul estimatif du prix total du Bordereau du Detail Estimatif a generer</t>
+  </si>
+  <si>
+    <t>Creation view et Affichage du BDQ</t>
+  </si>
+  <si>
+    <t>Mise en place et calcul des rendements estimatifs pour chaque tache</t>
+  </si>
+  <si>
+    <t>les details d'un BDE</t>
+  </si>
+  <si>
+    <t>Exportation en pdf des conventions, BDE, Rendement estimatif</t>
+  </si>
+  <si>
+    <t>Calcul salaire des personnels pour chaque tache</t>
+  </si>
+  <si>
+    <t>Tableau de bord des devis de chaque projet par ans pour les administrateurs</t>
   </si>
 </sst>
 </file>
@@ -261,50 +267,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +530,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I68"/>
+  <dimension ref="B2:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -538,23 +544,23 @@
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4"/>
@@ -566,13 +572,13 @@
     <row r="4" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>4</v>
       </c>
       <c r="I4" s="4"/>
@@ -580,13 +586,13 @@
     <row r="5" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
@@ -594,13 +600,13 @@
     <row r="6" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>2</v>
       </c>
       <c r="I6" s="4"/>
@@ -608,13 +614,13 @@
     <row r="7" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>2</v>
       </c>
       <c r="I7" s="4"/>
@@ -622,13 +628,13 @@
     <row r="8" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="14" t="s">
-        <v>33</v>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="4"/>
@@ -636,13 +642,13 @@
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="9">
+      <c r="H9" s="14">
         <f>SUM(H4,H5,H6,H7,H8)</f>
         <v>10</v>
       </c>
@@ -659,11 +665,11 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4"/>
@@ -675,13 +681,13 @@
     <row r="12" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="4"/>
@@ -689,13 +695,13 @@
     <row r="13" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="14" t="s">
-        <v>42</v>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" s="4"/>
@@ -703,27 +709,27 @@
     <row r="14" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19"/>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="14" t="s">
-        <v>38</v>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>2</v>
       </c>
       <c r="I15" s="4"/>
@@ -731,13 +737,13 @@
     <row r="16" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>1.5</v>
       </c>
       <c r="I16" s="4"/>
@@ -745,16 +751,16 @@
     <row r="17" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
@@ -765,10 +771,10 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="13">
-        <v>1</v>
-      </c>
-      <c r="I18" s="13"/>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
@@ -779,246 +785,237 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="13">
-        <v>1</v>
-      </c>
-      <c r="I19" s="13"/>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="9">
+      <c r="H20" s="14">
         <f>SUM(F12:I19)</f>
         <v>9.5</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="18" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="7">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="3">
         <v>2</v>
       </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="18" t="s">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="7">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="3">
         <v>2</v>
       </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="14" t="s">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="12" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13">
-        <v>1</v>
-      </c>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="13">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="9" t="s">
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="11">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="9">
-        <f>SUM(F22:I29)</f>
-        <v>12</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="14">
+        <f>SUM(F22:I30)</f>
+        <v>14</v>
+      </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
+    <row r="32" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="19">
-        <v>1</v>
-      </c>
-      <c r="I32" s="19"/>
+      <c r="D32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19">
-        <v>2</v>
-      </c>
-      <c r="I33" s="19"/>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
       <c r="H34" s="7">
         <v>2</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="7">
         <v>1</v>
       </c>
@@ -1027,112 +1024,112 @@
     <row r="37" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7"/>
+      <c r="D37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7"/>
+      <c r="D38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3">
+        <v>2</v>
+      </c>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13">
-        <v>1</v>
-      </c>
-      <c r="I39" s="13"/>
+      <c r="D39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="13">
-        <v>1</v>
-      </c>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="9" t="s">
+      <c r="H40" s="11">
+        <v>1</v>
+      </c>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="11">
+        <v>1</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="9">
-        <f>SUM(F31:I40)</f>
-        <v>13</v>
-      </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="H42" s="14">
+        <f>SUM(F32:I41)</f>
+        <v>11.5</v>
+      </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
+    <row r="43" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="14" t="s">
-        <v>40</v>
+      <c r="D43" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="7">
-        <v>3</v>
-      </c>
+      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="14" t="s">
-        <v>41</v>
+      <c r="D44" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="7">
+      <c r="H44" s="3">
         <v>3</v>
       </c>
       <c r="I44" s="4"/>
@@ -1140,27 +1137,27 @@
     <row r="45" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="14" t="s">
-        <v>12</v>
+      <c r="D45" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="7">
-        <v>1</v>
+      <c r="H45" s="3">
+        <v>3</v>
       </c>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="12" t="s">
-        <v>13</v>
+      <c r="D46" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="13">
+      <c r="H46" s="3">
         <v>1</v>
       </c>
       <c r="I46" s="4"/>
@@ -1169,79 +1166,79 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="13">
+      <c r="H47" s="11">
         <v>1</v>
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="9" t="s">
-        <v>8</v>
+    <row r="48" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="9">
-        <f>SUM(F43:I47)</f>
-        <v>9</v>
+      <c r="H48" s="11">
+        <v>1</v>
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+      <c r="D49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="14">
+        <f>SUM(F44:I48)</f>
+        <v>9</v>
+      </c>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="7">
-        <v>2</v>
-      </c>
+      <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="14" t="s">
-        <v>39</v>
+      <c r="D52" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="7">
+      <c r="H52" s="3">
         <v>2</v>
       </c>
       <c r="I52" s="4"/>
@@ -1249,41 +1246,41 @@
     <row r="53" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="7">
+      <c r="D53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="3">
         <v>2</v>
       </c>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="7">
-        <v>1</v>
-      </c>
-      <c r="I54" s="4"/>
+      <c r="D54" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="3">
+        <v>2</v>
+      </c>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="12" t="s">
-        <v>13</v>
+      <c r="D55" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="13">
+      <c r="H55" s="3">
         <v>1</v>
       </c>
       <c r="I55" s="4"/>
@@ -1292,79 +1289,79 @@
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="13">
+      <c r="H56" s="11">
         <v>1</v>
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="9" t="s">
-        <v>8</v>
+    <row r="57" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="9">
-        <f>SUM(E51:I56)</f>
-        <v>9</v>
+      <c r="H57" s="11">
+        <v>1</v>
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
+      <c r="D58" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="14">
+        <f>SUM(E52:I57)</f>
+        <v>9</v>
+      </c>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="6">
-        <v>3</v>
-      </c>
+      <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="8" t="s">
-        <v>22</v>
+      <c r="D61" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="6">
+      <c r="H61" s="13">
         <v>3</v>
       </c>
       <c r="I61" s="4"/>
@@ -1372,98 +1369,155 @@
     <row r="62" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="16" t="s">
-        <v>23</v>
+      <c r="D62" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="17">
-        <v>1</v>
+      <c r="H62" s="13">
+        <v>3</v>
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="9" t="s">
-        <v>8</v>
+    <row r="63" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="9">
-        <f>SUM(E60:I62)</f>
-        <v>7</v>
+      <c r="H63" s="21">
+        <v>1</v>
       </c>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D64" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="14">
+        <f>SUM(E61:I63)</f>
+        <v>7</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="11">
-        <f>SUM(H63,H57,H48,H30,H41,H20,H9)</f>
-        <v>69.5</v>
-      </c>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="67" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D67" s="2"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="18">
+        <f>SUM(H64,H58,H49,H31,H42,H20,H9)</f>
+        <v>70</v>
+      </c>
+      <c r="I66" s="4"/>
     </row>
     <row r="68" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D68" s="2"/>
     </row>
+    <row r="69" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D69" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D17:G17"/>
+  <mergeCells count="119">
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B60:C63"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="B51:C57"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="D52:G52"/>
     <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:I64"/>
     <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B32:C41"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D43:I43"/>
     <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="B43:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D41:G41"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B11:C19"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B21:C30"/>
+    <mergeCell ref="D21:I21"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B3:C8"/>
@@ -1475,82 +1529,38 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B11:C19"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B21:C29"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B31:C40"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B42:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D54:G54"/>
     <mergeCell ref="H54:I54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="B50:C56"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Estimation de stage.xlsx
+++ b/Estimation de stage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE55DA13-ACE5-418E-BC5B-67F04B27F5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F5F27D-A03C-4623-9100-514CDBB66E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Analyse et spécification des besoins du projet</t>
   </si>
   <si>
-    <t>Conception de l'architecture du site web (bdd)</t>
-  </si>
-  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Recapitulation des travaux a faire et le total des prix pour chaque travaux</t>
   </si>
   <si>
-    <t xml:space="preserve">Recherche et filtrage par date, localisation, devis, type de BDE(Construction,Renovation,...) </t>
-  </si>
-  <si>
     <t>Création des dessins d'écran (adobe xd) pour le front-office</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Creation des articles et acte d'engagement (Pour le client et l'entreprise)</t>
   </si>
   <si>
-    <t>Tableau de bord de suivis de travaux pour chaque projet</t>
-  </si>
-  <si>
     <t>Gestion des utilisateurs admin (CRUD)-Inscription</t>
   </si>
   <si>
@@ -157,7 +148,16 @@
     <t>Calcul salaire des personnels pour chaque tache</t>
   </si>
   <si>
-    <t>Tableau de bord des devis de chaque projet par ans pour les administrateurs</t>
+    <t>Tableau de bord de l'avancement des travaux par mois pour l'entreprise</t>
+  </si>
+  <si>
+    <t>Conception de l'architecture de l'appication (bdd)</t>
+  </si>
+  <si>
+    <t>Creation des conventions avec calcul du delais d'execution des travaux (pour le maitre d'ouvrage et le maitre d'œuvre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche et filtrage par date, localisation, devis, type de BDQ(Construction,Renovation,...) </t>
   </si>
 </sst>
 </file>
@@ -278,13 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,6 +285,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,6 +306,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -532,8 +532,8 @@
   </sheetPr>
   <dimension ref="B2:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -544,23 +544,23 @@
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4"/>
@@ -615,7 +615,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -629,7 +629,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -642,13 +642,13 @@
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="14" t="s">
-        <v>8</v>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <f>SUM(H4,H5,H6,H7,H8)</f>
         <v>10</v>
       </c>
@@ -665,12 +665,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -682,7 +682,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -696,7 +696,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -710,7 +710,7 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -724,13 +724,13 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -738,7 +738,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -752,7 +752,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -765,208 +765,208 @@
     <row r="18" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11"/>
+      <c r="D18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11"/>
+      <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="14" t="s">
-        <v>8</v>
+      <c r="D20" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <f>SUM(F12:I19)</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="B21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="3">
         <v>2</v>
       </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="3">
         <v>3</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="3">
         <v>2</v>
       </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="3">
         <v>2</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="13">
-        <v>1</v>
-      </c>
-      <c r="I28" s="13"/>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="12" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11">
-        <v>1</v>
-      </c>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11">
-        <v>1</v>
-      </c>
-      <c r="I30" s="11"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="14" t="s">
-        <v>8</v>
+      <c r="D31" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <f>SUM(F22:I30)</f>
         <v>14</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>16</v>
+      <c r="B32" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="16" t="s">
-        <v>10</v>
+      <c r="D32" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -975,10 +975,10 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="4"/>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -986,10 +986,10 @@
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="4"/>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -997,10 +997,10 @@
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="4"/>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H35" s="7">
         <v>1.5</v>
@@ -1010,12 +1010,12 @@
     <row r="36" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="D36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="7">
         <v>1</v>
       </c>
@@ -1024,8 +1024,8 @@
     <row r="37" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="10" t="s">
-        <v>42</v>
+      <c r="D37" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1038,8 +1038,8 @@
     <row r="38" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="10" t="s">
-        <v>28</v>
+      <c r="D38" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1053,7 +1053,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1066,53 +1066,53 @@
     <row r="40" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="11">
-        <v>1</v>
-      </c>
-      <c r="I40" s="11"/>
+      <c r="D40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="11">
-        <v>1</v>
-      </c>
-      <c r="I41" s="11"/>
+      <c r="D41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="8">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="14" t="s">
-        <v>8</v>
+      <c r="D42" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <f>SUM(F32:I41)</f>
         <v>11.5</v>
       </c>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
-        <v>17</v>
+      <c r="B43" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="16" t="s">
-        <v>10</v>
+      <c r="D43" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1124,7 +1124,7 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1138,7 +1138,7 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1152,7 +1152,7 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1165,13 +1165,13 @@
     <row r="47" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="12" t="s">
-        <v>13</v>
+      <c r="D47" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="11">
+      <c r="H47" s="8">
         <v>1</v>
       </c>
       <c r="I47" s="4"/>
@@ -1179,13 +1179,13 @@
     <row r="48" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="12" t="s">
-        <v>14</v>
+      <c r="D48" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="11">
+      <c r="H48" s="8">
         <v>1</v>
       </c>
       <c r="I48" s="4"/>
@@ -1193,13 +1193,13 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="14" t="s">
-        <v>8</v>
+      <c r="D49" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <f>SUM(F44:I48)</f>
         <v>9</v>
       </c>
@@ -1216,12 +1216,12 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
-        <v>18</v>
+      <c r="B51" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="16" t="s">
-        <v>10</v>
+      <c r="D51" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1233,7 +1233,7 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1247,7 +1247,7 @@
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1257,15 +1257,15 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
+      <c r="D54" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="3">
         <v>2</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -1288,13 +1288,13 @@
     <row r="56" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="12" t="s">
-        <v>13</v>
+      <c r="D56" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="11">
+      <c r="H56" s="8">
         <v>1</v>
       </c>
       <c r="I56" s="4"/>
@@ -1302,13 +1302,13 @@
     <row r="57" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="12" t="s">
-        <v>14</v>
+      <c r="D57" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="11">
+      <c r="H57" s="8">
         <v>1</v>
       </c>
       <c r="I57" s="4"/>
@@ -1316,13 +1316,13 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="14" t="s">
-        <v>8</v>
+      <c r="D58" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <f>SUM(E52:I57)</f>
         <v>9</v>
       </c>
@@ -1339,12 +1339,12 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -1355,13 +1355,13 @@
     <row r="61" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="19" t="s">
-        <v>21</v>
+      <c r="D61" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="13">
+      <c r="H61" s="10">
         <v>3</v>
       </c>
       <c r="I61" s="4"/>
@@ -1370,12 +1370,12 @@
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="13">
+      <c r="H62" s="10">
         <v>3</v>
       </c>
       <c r="I62" s="4"/>
@@ -1383,13 +1383,13 @@
     <row r="63" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="20" t="s">
-        <v>23</v>
+      <c r="D63" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="21">
+      <c r="H63" s="20">
         <v>1</v>
       </c>
       <c r="I63" s="4"/>
@@ -1397,13 +1397,13 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="14" t="s">
-        <v>8</v>
+      <c r="D64" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <f>SUM(E61:I63)</f>
         <v>7</v>
       </c>
@@ -1422,15 +1422,15 @@
     <row r="66" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="17" t="s">
-        <v>24</v>
+      <c r="D66" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="18">
+      <c r="H66" s="17">
         <f>SUM(H64,H58,H49,H31,H42,H20,H9)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I66" s="4"/>
     </row>
@@ -1442,8 +1442,6 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
     <mergeCell ref="B60:C63"/>
     <mergeCell ref="D60:I60"/>
     <mergeCell ref="H61:I61"/>
@@ -1472,14 +1470,8 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B32:C41"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:I54"/>
     <mergeCell ref="B43:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="H48:I48"/>
@@ -1495,6 +1487,11 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B32:C41"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="B11:C19"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
@@ -1518,6 +1515,7 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="B21:C30"/>
     <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B3:C8"/>
@@ -1529,9 +1527,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:I54"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D26:G26"/>
@@ -1552,6 +1547,11 @@
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:I44"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="H6:I6"/>

--- a/Estimation de stage.xlsx
+++ b/Estimation de stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F5F27D-A03C-4623-9100-514CDBB66E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D328E2-E17C-4FCF-B066-5B46C2FDC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,18 +285,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -532,8 +532,8 @@
   </sheetPr>
   <dimension ref="B2:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -544,23 +544,23 @@
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4"/>
@@ -642,13 +642,13 @@
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <f>SUM(H4,H5,H6,H7,H8)</f>
         <v>10</v>
       </c>
@@ -665,11 +665,11 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4"/>
@@ -793,119 +793,119 @@
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <f>SUM(F12:I19)</f>
         <v>8.5</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="3">
         <v>2</v>
       </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="3">
         <v>3</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="12" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="3">
         <v>2</v>
       </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="12" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="3">
         <v>2</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="5" t="s">
         <v>11</v>
       </c>
@@ -918,8 +918,8 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="9" t="s">
         <v>12</v>
       </c>
@@ -932,8 +932,8 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="9" t="s">
         <v>13</v>
       </c>
@@ -948,24 +948,24 @@
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <f>SUM(F22:I30)</f>
         <v>14</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="4"/>
@@ -975,7 +975,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="4"/>
       <c r="D33" t="s">
         <v>36</v>
@@ -986,7 +986,7 @@
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="4"/>
       <c r="D34" t="s">
         <v>38</v>
@@ -997,7 +997,7 @@
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="4"/>
       <c r="D35" t="s">
         <v>41</v>
@@ -1010,12 +1010,12 @@
     <row r="36" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="7">
         <v>1</v>
       </c>
@@ -1024,7 +1024,7 @@
     <row r="37" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="5"/>
@@ -1038,7 +1038,7 @@
     <row r="38" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="5"/>
@@ -1094,24 +1094,24 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <f>SUM(F32:I41)</f>
         <v>11.5</v>
       </c>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="4"/>
@@ -1193,13 +1193,13 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="13">
+      <c r="H49" s="11">
         <f>SUM(F44:I48)</f>
         <v>9</v>
       </c>
@@ -1216,11 +1216,11 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="4"/>
@@ -1316,13 +1316,13 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="13">
+      <c r="H58" s="11">
         <f>SUM(E52:I57)</f>
         <v>9</v>
       </c>
@@ -1339,11 +1339,11 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E60" s="4"/>
@@ -1397,13 +1397,13 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="13">
+      <c r="H64" s="11">
         <f>SUM(E61:I63)</f>
         <v>7</v>
       </c>
